--- a/testdata/Opencart_LoginData.xlsx
+++ b/testdata/Opencart_LoginData.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3288755C-6402-4D7C-9121-FA5045E2E7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7C8F76-5DED-4C49-8423-2DD7EAE3CDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -472,17 +471,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="18.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,7 +492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75">
+    <row r="2" spans="1:3" ht="18.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -504,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75">
+    <row r="3" spans="1:3" ht="18.5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -515,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75">
+    <row r="4" spans="1:3" ht="18.5">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -526,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75">
+    <row r="5" spans="1:3" ht="18.5">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -546,8 +545,9 @@
     <hyperlink ref="B4" r:id="rId5" xr:uid="{08A17E49-9CB1-45B2-B883-A0D636516802}"/>
     <hyperlink ref="A5" r:id="rId6" xr:uid="{D27FBAF2-D072-4023-BBDC-135E3C4E640F}"/>
     <hyperlink ref="B5" r:id="rId7" xr:uid="{5A58E02C-0AF0-4C75-8B7D-C513EAE566F2}"/>
+    <hyperlink ref="A2" r:id="rId8" xr:uid="{2C8145B1-5BCE-4ED3-8B91-BA425533E825}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>